--- a/Input/Naming/Selections.xlsx
+++ b/Input/Naming/Selections.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel Ramirez\PycharmProjects\pptautomation\Input\Naming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD3C5DB-9261-47A4-AEF5-6D410F773697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE767A82-1E4E-4B4B-8D90-BF21F8BE170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{21252052-83E8-43D3-9642-6838CCCFE45F}"/>
   </bookViews>
   <sheets>
     <sheet name="Selections" sheetId="3" r:id="rId1"/>
-    <sheet name="admin" sheetId="4" r:id="rId2"/>
+    <sheet name="admin" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -49,15 +49,6 @@
     <t>Reference set name</t>
   </si>
   <si>
-    <t>CES Total</t>
-  </si>
-  <si>
-    <t>business unit</t>
-  </si>
-  <si>
-    <t>B2B Business services</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -68,6 +59,9 @@
   </si>
   <si>
     <t>€</t>
+  </si>
+  <si>
+    <t>[insert the name]</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1145,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,15 +1183,15 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1230,17 +1224,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
